--- a/file/l2t.results.xlsx
+++ b/file/l2t.results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="13">
   <si>
     <t>time(*10^4 seconds)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,14 @@
   </si>
   <si>
     <t>LET3-random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LET4-random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roulette wheel selection-&gt;descendent order(LET4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="L1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -449,9 +457,11 @@
     <col min="7" max="7" width="12.125" customWidth="1"/>
     <col min="9" max="9" width="12.375" customWidth="1"/>
     <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="49.375" customWidth="1"/>
+    <col min="13" max="13" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,8 +495,14 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -524,8 +540,15 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <f>L2-B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -563,8 +586,15 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M31" si="4">L3-B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -602,8 +632,15 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -641,8 +678,15 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L5">
+        <v>8</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -680,8 +724,15 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -719,8 +770,15 @@
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L7">
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -758,8 +816,15 @@
       <c r="K8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -797,8 +862,15 @@
       <c r="K9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -836,8 +908,15 @@
       <c r="K10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -875,8 +954,15 @@
       <c r="K11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L11">
+        <v>11</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -914,8 +1000,15 @@
       <c r="K12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L12">
+        <v>11</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -953,8 +1046,15 @@
       <c r="K13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L13">
+        <v>12</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -992,8 +1092,15 @@
       <c r="K14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L14">
+        <v>14</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1031,8 +1138,15 @@
       <c r="K15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L15">
+        <v>16</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1070,8 +1184,15 @@
       <c r="K16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L16">
+        <v>16</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1109,8 +1230,15 @@
       <c r="K17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L17">
+        <v>16</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1148,8 +1276,15 @@
       <c r="K18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L18">
+        <v>16</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1187,8 +1322,15 @@
       <c r="K19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L19">
+        <v>16</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1226,8 +1368,15 @@
       <c r="K20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L20">
+        <v>18</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1265,8 +1414,15 @@
       <c r="K21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L21">
+        <v>18</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1304,8 +1460,15 @@
       <c r="K22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L22">
+        <v>18</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1343,8 +1506,15 @@
       <c r="K23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L23">
+        <v>18</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1382,8 +1552,15 @@
       <c r="K24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L24">
+        <v>18</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1421,8 +1598,15 @@
       <c r="K25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L25">
+        <v>18</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1460,8 +1644,15 @@
       <c r="K26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L26">
+        <v>18</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1499,8 +1690,15 @@
       <c r="K27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L27">
+        <v>18</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1538,8 +1736,15 @@
       <c r="K28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L28">
+        <v>19</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1577,8 +1782,15 @@
       <c r="K29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L29">
+        <v>19</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1616,8 +1828,15 @@
       <c r="K30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L30">
+        <v>19</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1653,6 +1872,13 @@
         <v>19</v>
       </c>
       <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>19</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1664,10 +1890,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="L1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1678,9 +1904,11 @@
     <col min="7" max="7" width="11.875" customWidth="1"/>
     <col min="9" max="9" width="12.375" customWidth="1"/>
     <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="53.375" customWidth="1"/>
+    <col min="13" max="13" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1714,8 +1942,14 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1750,8 +1984,15 @@
       <c r="K2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <f>L2-B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1786,8 +2027,15 @@
       <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M31" si="1">L3-B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1822,8 +2070,15 @@
       <c r="K4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1858,8 +2113,15 @@
       <c r="K5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1894,8 +2156,15 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1930,8 +2199,15 @@
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1966,8 +2242,15 @@
       <c r="K8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2002,8 +2285,15 @@
       <c r="K9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L9">
+        <v>9</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2038,8 +2328,15 @@
       <c r="K10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2074,8 +2371,15 @@
       <c r="K11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2110,8 +2414,15 @@
       <c r="K12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2146,8 +2457,15 @@
       <c r="K13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L13">
+        <v>11</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2182,8 +2500,15 @@
       <c r="K14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L14">
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2218,8 +2543,15 @@
       <c r="K15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L15">
+        <v>11</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2254,8 +2586,15 @@
       <c r="K16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L16">
+        <v>11</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2290,8 +2629,15 @@
       <c r="K17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L17">
+        <v>11</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2326,8 +2672,15 @@
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L18">
+        <v>11</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2362,8 +2715,15 @@
       <c r="K19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L19">
+        <v>12</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2398,8 +2758,15 @@
       <c r="K20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L20">
+        <v>12</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2434,8 +2801,15 @@
       <c r="K21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L21">
+        <v>13</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2470,8 +2844,15 @@
       <c r="K22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L22">
+        <v>13</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2506,8 +2887,15 @@
       <c r="K23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L23">
+        <v>13</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2542,8 +2930,15 @@
       <c r="K24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L24">
+        <v>13</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2578,8 +2973,15 @@
       <c r="K25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L25">
+        <v>13</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2614,8 +3016,15 @@
       <c r="K26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L26">
+        <v>13</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2650,8 +3059,15 @@
       <c r="K27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L27">
+        <v>13</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2686,8 +3102,15 @@
       <c r="K28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L28">
+        <v>13</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2722,8 +3145,15 @@
       <c r="K29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L29">
+        <v>14</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2758,8 +3188,15 @@
       <c r="K30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L30">
+        <v>14</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2792,6 +3229,13 @@
         <v>14</v>
       </c>
       <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>14</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2803,9 +3247,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:M1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2815,9 +3261,11 @@
     <col min="7" max="7" width="12.375" customWidth="1"/>
     <col min="9" max="9" width="12.875" customWidth="1"/>
     <col min="11" max="11" width="12.875" customWidth="1"/>
+    <col min="12" max="12" width="55" customWidth="1"/>
+    <col min="13" max="13" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2851,8 +3299,14 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2887,8 +3341,15 @@
       <c r="K2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <f>L2-B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2923,8 +3384,15 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M31" si="1">L3-B3</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2959,8 +3427,15 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2995,8 +3470,15 @@
       <c r="K5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3031,8 +3513,15 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L6">
+        <v>9</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3067,8 +3556,15 @@
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L7">
+        <v>9</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3103,8 +3599,15 @@
       <c r="K8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L8">
+        <v>9</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3139,8 +3642,15 @@
       <c r="K9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3175,8 +3685,15 @@
       <c r="K10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3211,8 +3728,15 @@
       <c r="K11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3247,8 +3771,15 @@
       <c r="K12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L12">
+        <v>11</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3283,8 +3814,15 @@
       <c r="K13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L13">
+        <v>12</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3319,8 +3857,15 @@
       <c r="K14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L14">
+        <v>13</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3355,8 +3900,15 @@
       <c r="K15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L15">
+        <v>13</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3391,8 +3943,15 @@
       <c r="K16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L16">
+        <v>14</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3427,8 +3986,15 @@
       <c r="K17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L17">
+        <v>14</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3463,8 +4029,15 @@
       <c r="K18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L18">
+        <v>14</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3499,8 +4072,15 @@
       <c r="K19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L19">
+        <v>15</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3535,8 +4115,15 @@
       <c r="K20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L20">
+        <v>15</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3571,8 +4158,15 @@
       <c r="K21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L21">
+        <v>15</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3607,8 +4201,15 @@
       <c r="K22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L22">
+        <v>16</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3643,8 +4244,15 @@
       <c r="K23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L23">
+        <v>17</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3679,8 +4287,15 @@
       <c r="K24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L24">
+        <v>18</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3715,8 +4330,15 @@
       <c r="K25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L25">
+        <v>18</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3751,8 +4373,15 @@
       <c r="K26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L26">
+        <v>18</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3787,8 +4416,15 @@
       <c r="K27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L27">
+        <v>18</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3823,8 +4459,15 @@
       <c r="K28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L28">
+        <v>20</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3859,8 +4502,15 @@
       <c r="K29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L29">
+        <v>20</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3895,8 +4545,15 @@
       <c r="K30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L30">
+        <v>20</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3930,6 +4587,13 @@
       </c>
       <c r="K31">
         <v>0</v>
+      </c>
+      <c r="L31">
+        <v>20</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3941,10 +4605,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E31"/>
+      <selection activeCell="L1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3955,9 +4619,11 @@
     <col min="7" max="7" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="15.125" customWidth="1"/>
     <col min="11" max="11" width="13.625" customWidth="1"/>
+    <col min="12" max="12" width="58.375" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3991,8 +4657,14 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4027,8 +4699,14 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4063,8 +4741,14 @@
       <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4099,8 +4783,14 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4135,8 +4825,14 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4171,8 +4867,14 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4207,8 +4909,14 @@
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4243,8 +4951,14 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4279,8 +4993,14 @@
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4315,8 +5035,14 @@
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4351,8 +5077,14 @@
       <c r="K11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4387,8 +5119,14 @@
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4423,8 +5161,14 @@
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4459,8 +5203,14 @@
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4495,8 +5245,14 @@
       <c r="K15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4531,8 +5287,14 @@
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4567,8 +5329,14 @@
       <c r="K17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4603,8 +5371,14 @@
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4639,8 +5413,14 @@
       <c r="K19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4675,8 +5455,14 @@
       <c r="K20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4711,8 +5497,14 @@
       <c r="K21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4747,8 +5539,14 @@
       <c r="K22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4783,8 +5581,14 @@
       <c r="K23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4819,8 +5623,14 @@
       <c r="K24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4855,8 +5665,14 @@
       <c r="K25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4891,8 +5707,14 @@
       <c r="K26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4927,8 +5749,14 @@
       <c r="K27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4963,8 +5791,14 @@
       <c r="K28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4999,8 +5833,14 @@
       <c r="K29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5035,8 +5875,14 @@
       <c r="K30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5069,6 +5915,12 @@
         <v>1</v>
       </c>
       <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
         <v>0</v>
       </c>
     </row>
@@ -5080,10 +5932,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="L1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5094,9 +5946,11 @@
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="9" max="9" width="13.125" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="57" customWidth="1"/>
+    <col min="13" max="13" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5130,8 +5984,14 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2</v>
       </c>
@@ -5166,8 +6026,15 @@
       <c r="K2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <f>L2-B2</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>4</v>
       </c>
@@ -5202,8 +6069,15 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M51" si="1">L3-B3</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -5238,8 +6112,15 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>8</v>
       </c>
@@ -5274,8 +6155,15 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>10</v>
       </c>
@@ -5310,8 +6198,15 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>12</v>
       </c>
@@ -5346,8 +6241,15 @@
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>14</v>
       </c>
@@ -5382,8 +6284,15 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>16</v>
       </c>
@@ -5418,8 +6327,15 @@
       <c r="K9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>18</v>
       </c>
@@ -5454,8 +6370,15 @@
       <c r="K10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>20</v>
       </c>
@@ -5490,8 +6413,15 @@
       <c r="K11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>22</v>
       </c>
@@ -5526,8 +6456,15 @@
       <c r="K12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>24</v>
       </c>
@@ -5562,8 +6499,15 @@
       <c r="K13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>26</v>
       </c>
@@ -5598,8 +6542,15 @@
       <c r="K14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>28</v>
       </c>
@@ -5634,8 +6585,15 @@
       <c r="K15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>30</v>
       </c>
@@ -5670,8 +6628,15 @@
       <c r="K16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>32</v>
       </c>
@@ -5706,8 +6671,15 @@
       <c r="K17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>34</v>
       </c>
@@ -5742,8 +6714,15 @@
       <c r="K18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L18">
+        <v>10</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>36</v>
       </c>
@@ -5778,8 +6757,15 @@
       <c r="K19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>38</v>
       </c>
@@ -5814,8 +6800,15 @@
       <c r="K20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L20">
+        <v>12</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>40</v>
       </c>
@@ -5850,8 +6843,15 @@
       <c r="K21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L21">
+        <v>12</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>42</v>
       </c>
@@ -5886,8 +6886,15 @@
       <c r="K22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L22">
+        <v>12</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>44</v>
       </c>
@@ -5922,8 +6929,15 @@
       <c r="K23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L23">
+        <v>12</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>46</v>
       </c>
@@ -5958,8 +6972,15 @@
       <c r="K24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L24">
+        <v>12</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>48</v>
       </c>
@@ -5994,8 +7015,15 @@
       <c r="K25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L25">
+        <v>12</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>50</v>
       </c>
@@ -6030,8 +7058,15 @@
       <c r="K26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L26">
+        <v>14</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>52</v>
       </c>
@@ -6066,8 +7101,15 @@
       <c r="K27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L27">
+        <v>14</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>54</v>
       </c>
@@ -6102,8 +7144,15 @@
       <c r="K28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L28">
+        <v>14</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>56</v>
       </c>
@@ -6138,8 +7187,15 @@
       <c r="K29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L29">
+        <v>15</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>58</v>
       </c>
@@ -6174,8 +7230,15 @@
       <c r="K30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L30">
+        <v>15</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>60</v>
       </c>
@@ -6210,8 +7273,15 @@
       <c r="K31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L31">
+        <v>15</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>62</v>
       </c>
@@ -6246,8 +7316,15 @@
       <c r="K32">
         <v>-1</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L32">
+        <v>16</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>64</v>
       </c>
@@ -6282,8 +7359,15 @@
       <c r="K33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L33">
+        <v>16</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>66</v>
       </c>
@@ -6318,8 +7402,15 @@
       <c r="K34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L34">
+        <v>19</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>68</v>
       </c>
@@ -6354,8 +7445,15 @@
       <c r="K35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L35">
+        <v>19</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>70</v>
       </c>
@@ -6390,8 +7488,15 @@
       <c r="K36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L36">
+        <v>19</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>72</v>
       </c>
@@ -6426,8 +7531,15 @@
       <c r="K37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L37">
+        <v>19</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>74</v>
       </c>
@@ -6462,8 +7574,15 @@
       <c r="K38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L38">
+        <v>19</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>76</v>
       </c>
@@ -6498,8 +7617,15 @@
       <c r="K39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L39">
+        <v>19</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>78</v>
       </c>
@@ -6534,8 +7660,15 @@
       <c r="K40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L40">
+        <v>19</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>80</v>
       </c>
@@ -6570,8 +7703,15 @@
       <c r="K41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L41">
+        <v>19</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>82</v>
       </c>
@@ -6606,8 +7746,15 @@
       <c r="K42">
         <v>-1</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L42">
+        <v>19</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>84</v>
       </c>
@@ -6642,8 +7789,15 @@
       <c r="K43">
         <v>-1</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L43">
+        <v>19</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>86</v>
       </c>
@@ -6678,8 +7832,15 @@
       <c r="K44">
         <v>-1</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L44">
+        <v>19</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>88</v>
       </c>
@@ -6714,8 +7875,15 @@
       <c r="K45">
         <v>-1</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L45">
+        <v>20</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>90</v>
       </c>
@@ -6750,8 +7918,15 @@
       <c r="K46">
         <v>-1</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L46">
+        <v>20</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>92</v>
       </c>
@@ -6786,8 +7961,15 @@
       <c r="K47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L47">
+        <v>20</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>94</v>
       </c>
@@ -6822,8 +8004,15 @@
       <c r="K48">
         <v>-1</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L48">
+        <v>20</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>96</v>
       </c>
@@ -6858,8 +8047,15 @@
       <c r="K49">
         <v>-1</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L49">
+        <v>20</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>98</v>
       </c>
@@ -6894,8 +8090,15 @@
       <c r="K50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L50">
+        <v>20</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>100</v>
       </c>
@@ -6929,6 +8132,13 @@
       </c>
       <c r="K51">
         <v>-1</v>
+      </c>
+      <c r="L51">
+        <v>20</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="1"/>
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
@@ -6939,10 +8149,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E51"/>
+      <selection activeCell="L1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6953,9 +8163,11 @@
     <col min="7" max="7" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="16.375" customWidth="1"/>
     <col min="11" max="11" width="16.875" customWidth="1"/>
+    <col min="12" max="12" width="56.5" customWidth="1"/>
+    <col min="13" max="13" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6989,8 +8201,14 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2</v>
       </c>
@@ -7025,8 +8243,15 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>L2-B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>4</v>
       </c>
@@ -7061,8 +8286,15 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M51" si="1">L3-B3</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -7097,8 +8329,15 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>8</v>
       </c>
@@ -7133,8 +8372,15 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>10</v>
       </c>
@@ -7169,8 +8415,15 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>12</v>
       </c>
@@ -7205,8 +8458,15 @@
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>14</v>
       </c>
@@ -7241,8 +8501,15 @@
       <c r="K8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>16</v>
       </c>
@@ -7277,8 +8544,15 @@
       <c r="K9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>18</v>
       </c>
@@ -7313,8 +8587,15 @@
       <c r="K10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>20</v>
       </c>
@@ -7349,8 +8630,15 @@
       <c r="K11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>22</v>
       </c>
@@ -7385,8 +8673,15 @@
       <c r="K12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>24</v>
       </c>
@@ -7421,8 +8716,15 @@
       <c r="K13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>26</v>
       </c>
@@ -7457,8 +8759,15 @@
       <c r="K14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>28</v>
       </c>
@@ -7493,8 +8802,15 @@
       <c r="K15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>30</v>
       </c>
@@ -7529,8 +8845,15 @@
       <c r="K16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>32</v>
       </c>
@@ -7565,8 +8888,15 @@
       <c r="K17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>34</v>
       </c>
@@ -7601,8 +8931,15 @@
       <c r="K18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>36</v>
       </c>
@@ -7637,8 +8974,15 @@
       <c r="K19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>38</v>
       </c>
@@ -7673,8 +9017,15 @@
       <c r="K20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>40</v>
       </c>
@@ -7709,8 +9060,15 @@
       <c r="K21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>42</v>
       </c>
@@ -7745,8 +9103,15 @@
       <c r="K22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>44</v>
       </c>
@@ -7781,8 +9146,15 @@
       <c r="K23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>46</v>
       </c>
@@ -7817,8 +9189,15 @@
       <c r="K24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>48</v>
       </c>
@@ -7853,8 +9232,15 @@
       <c r="K25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>50</v>
       </c>
@@ -7889,8 +9275,15 @@
       <c r="K26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L26">
+        <v>5</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>52</v>
       </c>
@@ -7925,8 +9318,15 @@
       <c r="K27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L27">
+        <v>5</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>54</v>
       </c>
@@ -7961,8 +9361,15 @@
       <c r="K28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L28">
+        <v>5</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>56</v>
       </c>
@@ -7997,8 +9404,15 @@
       <c r="K29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L29">
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>58</v>
       </c>
@@ -8033,8 +9447,15 @@
       <c r="K30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L30">
+        <v>5</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>60</v>
       </c>
@@ -8069,8 +9490,15 @@
       <c r="K31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L31">
+        <v>6</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>62</v>
       </c>
@@ -8105,8 +9533,15 @@
       <c r="K32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L32">
+        <v>6</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>64</v>
       </c>
@@ -8141,8 +9576,15 @@
       <c r="K33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L33">
+        <v>6</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>66</v>
       </c>
@@ -8177,8 +9619,15 @@
       <c r="K34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L34">
+        <v>6</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>68</v>
       </c>
@@ -8213,8 +9662,15 @@
       <c r="K35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L35">
+        <v>6</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>70</v>
       </c>
@@ -8249,8 +9705,15 @@
       <c r="K36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L36">
+        <v>7</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>72</v>
       </c>
@@ -8285,8 +9748,15 @@
       <c r="K37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L37">
+        <v>7</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>74</v>
       </c>
@@ -8321,8 +9791,15 @@
       <c r="K38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L38">
+        <v>7</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>76</v>
       </c>
@@ -8357,8 +9834,15 @@
       <c r="K39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L39">
+        <v>7</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>78</v>
       </c>
@@ -8393,8 +9877,15 @@
       <c r="K40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L40">
+        <v>7</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>80</v>
       </c>
@@ -8429,8 +9920,15 @@
       <c r="K41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L41">
+        <v>7</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>82</v>
       </c>
@@ -8465,8 +9963,15 @@
       <c r="K42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L42">
+        <v>7</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>84</v>
       </c>
@@ -8501,8 +10006,15 @@
       <c r="K43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L43">
+        <v>7</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>86</v>
       </c>
@@ -8537,8 +10049,15 @@
       <c r="K44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L44">
+        <v>8</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>88</v>
       </c>
@@ -8573,8 +10092,15 @@
       <c r="K45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L45">
+        <v>8</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>90</v>
       </c>
@@ -8609,8 +10135,15 @@
       <c r="K46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L46">
+        <v>8</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>92</v>
       </c>
@@ -8645,8 +10178,15 @@
       <c r="K47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L47">
+        <v>8</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>94</v>
       </c>
@@ -8681,8 +10221,15 @@
       <c r="K48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L48">
+        <v>8</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>96</v>
       </c>
@@ -8717,8 +10264,15 @@
       <c r="K49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L49">
+        <v>8</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>98</v>
       </c>
@@ -8753,8 +10307,15 @@
       <c r="K50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L50">
+        <v>8</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>100</v>
       </c>
@@ -8788,6 +10349,13 @@
       </c>
       <c r="K51">
         <v>0</v>
+      </c>
+      <c r="L51">
+        <v>8</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="1"/>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -8798,10 +10366,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E51"/>
+      <selection activeCell="L1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8812,9 +10380,11 @@
     <col min="7" max="7" width="13.75" customWidth="1"/>
     <col min="9" max="9" width="12.75" customWidth="1"/>
     <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="51.625" customWidth="1"/>
+    <col min="13" max="13" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8848,8 +10418,14 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2</v>
       </c>
@@ -8884,8 +10460,15 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <f>L2-B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>4</v>
       </c>
@@ -8920,8 +10503,15 @@
       <c r="K3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M51" si="1">L3-B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -8956,8 +10546,15 @@
       <c r="K4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>8</v>
       </c>
@@ -8992,8 +10589,15 @@
       <c r="K5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>10</v>
       </c>
@@ -9028,8 +10632,15 @@
       <c r="K6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>12</v>
       </c>
@@ -9064,8 +10675,15 @@
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>14</v>
       </c>
@@ -9100,8 +10718,15 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>16</v>
       </c>
@@ -9136,8 +10761,15 @@
       <c r="K9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>18</v>
       </c>
@@ -9172,8 +10804,15 @@
       <c r="K10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>20</v>
       </c>
@@ -9208,8 +10847,15 @@
       <c r="K11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>22</v>
       </c>
@@ -9244,8 +10890,15 @@
       <c r="K12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>24</v>
       </c>
@@ -9280,8 +10933,15 @@
       <c r="K13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L13">
+        <v>9</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>26</v>
       </c>
@@ -9316,8 +10976,15 @@
       <c r="K14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L14">
+        <v>9</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>28</v>
       </c>
@@ -9352,8 +11019,15 @@
       <c r="K15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L15">
+        <v>11</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>30</v>
       </c>
@@ -9388,8 +11062,15 @@
       <c r="K16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L16">
+        <v>11</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>32</v>
       </c>
@@ -9424,8 +11105,15 @@
       <c r="K17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L17">
+        <v>11</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>34</v>
       </c>
@@ -9460,8 +11148,15 @@
       <c r="K18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L18">
+        <v>11</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>36</v>
       </c>
@@ -9496,8 +11191,15 @@
       <c r="K19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L19">
+        <v>11</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>38</v>
       </c>
@@ -9532,8 +11234,15 @@
       <c r="K20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L20">
+        <v>11</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>40</v>
       </c>
@@ -9568,8 +11277,15 @@
       <c r="K21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L21">
+        <v>11</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>42</v>
       </c>
@@ -9604,8 +11320,15 @@
       <c r="K22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L22">
+        <v>13</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>44</v>
       </c>
@@ -9640,8 +11363,15 @@
       <c r="K23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L23">
+        <v>13</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>46</v>
       </c>
@@ -9676,8 +11406,15 @@
       <c r="K24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L24">
+        <v>13</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>48</v>
       </c>
@@ -9712,8 +11449,15 @@
       <c r="K25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L25">
+        <v>13</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>50</v>
       </c>
@@ -9748,8 +11492,15 @@
       <c r="K26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L26">
+        <v>13</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>52</v>
       </c>
@@ -9784,8 +11535,15 @@
       <c r="K27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L27">
+        <v>13</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>54</v>
       </c>
@@ -9820,8 +11578,15 @@
       <c r="K28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L28">
+        <v>13</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>56</v>
       </c>
@@ -9856,8 +11621,15 @@
       <c r="K29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L29">
+        <v>13</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>58</v>
       </c>
@@ -9892,8 +11664,15 @@
       <c r="K30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L30">
+        <v>13</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>60</v>
       </c>
@@ -9928,8 +11707,15 @@
       <c r="K31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L31">
+        <v>15</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>62</v>
       </c>
@@ -9964,8 +11750,15 @@
       <c r="K32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L32">
+        <v>16</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>64</v>
       </c>
@@ -10000,8 +11793,15 @@
       <c r="K33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L33">
+        <v>16</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>66</v>
       </c>
@@ -10036,8 +11836,15 @@
       <c r="K34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L34">
+        <v>17</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>68</v>
       </c>
@@ -10072,8 +11879,15 @@
       <c r="K35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L35">
+        <v>17</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>70</v>
       </c>
@@ -10108,8 +11922,15 @@
       <c r="K36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L36">
+        <v>17</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>72</v>
       </c>
@@ -10144,8 +11965,15 @@
       <c r="K37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L37">
+        <v>17</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>74</v>
       </c>
@@ -10180,8 +12008,15 @@
       <c r="K38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L38">
+        <v>17</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>76</v>
       </c>
@@ -10216,8 +12051,15 @@
       <c r="K39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L39">
+        <v>17</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>78</v>
       </c>
@@ -10252,8 +12094,15 @@
       <c r="K40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L40">
+        <v>17</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>80</v>
       </c>
@@ -10288,8 +12137,15 @@
       <c r="K41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L41">
+        <v>17</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>82</v>
       </c>
@@ -10324,8 +12180,15 @@
       <c r="K42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L42">
+        <v>17</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>84</v>
       </c>
@@ -10360,8 +12223,15 @@
       <c r="K43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L43">
+        <v>17</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>86</v>
       </c>
@@ -10396,8 +12266,15 @@
       <c r="K44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L44">
+        <v>17</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>88</v>
       </c>
@@ -10432,8 +12309,15 @@
       <c r="K45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L45">
+        <v>17</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>90</v>
       </c>
@@ -10468,8 +12352,15 @@
       <c r="K46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L46">
+        <v>17</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>92</v>
       </c>
@@ -10504,8 +12395,15 @@
       <c r="K47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L47">
+        <v>17</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>94</v>
       </c>
@@ -10540,8 +12438,15 @@
       <c r="K48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L48">
+        <v>20</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>96</v>
       </c>
@@ -10576,8 +12481,15 @@
       <c r="K49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L49">
+        <v>20</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>98</v>
       </c>
@@ -10612,8 +12524,15 @@
       <c r="K50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L50">
+        <v>21</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>100</v>
       </c>
@@ -10647,6 +12566,13 @@
       </c>
       <c r="K51">
         <v>1</v>
+      </c>
+      <c r="L51">
+        <v>21</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="1"/>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -10657,10 +12583,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E51"/>
+      <selection activeCell="L1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10671,9 +12597,11 @@
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="9" max="9" width="13.625" customWidth="1"/>
     <col min="11" max="11" width="13.125" customWidth="1"/>
+    <col min="12" max="12" width="49.75" customWidth="1"/>
+    <col min="13" max="13" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10707,8 +12635,14 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2</v>
       </c>
@@ -10743,8 +12677,15 @@
       <c r="K2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>L2-B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>4</v>
       </c>
@@ -10779,8 +12720,15 @@
       <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M51" si="1">L3-B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -10815,8 +12763,15 @@
       <c r="K4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>8</v>
       </c>
@@ -10851,8 +12806,15 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>10</v>
       </c>
@@ -10887,8 +12849,15 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>12</v>
       </c>
@@ -10923,8 +12892,15 @@
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>14</v>
       </c>
@@ -10959,8 +12935,15 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>16</v>
       </c>
@@ -10995,8 +12978,15 @@
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>18</v>
       </c>
@@ -11031,8 +13021,15 @@
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>20</v>
       </c>
@@ -11067,8 +13064,15 @@
       <c r="K11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>22</v>
       </c>
@@ -11103,8 +13107,15 @@
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>24</v>
       </c>
@@ -11139,8 +13150,15 @@
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>26</v>
       </c>
@@ -11175,8 +13193,15 @@
       <c r="K14">
         <v>-1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>28</v>
       </c>
@@ -11211,8 +13236,15 @@
       <c r="K15">
         <v>-1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>30</v>
       </c>
@@ -11247,8 +13279,15 @@
       <c r="K16">
         <v>-1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>32</v>
       </c>
@@ -11283,8 +13322,15 @@
       <c r="K17">
         <v>-1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>34</v>
       </c>
@@ -11319,8 +13365,15 @@
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>36</v>
       </c>
@@ -11355,8 +13408,15 @@
       <c r="K19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>38</v>
       </c>
@@ -11391,8 +13451,15 @@
       <c r="K20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>40</v>
       </c>
@@ -11427,8 +13494,15 @@
       <c r="K21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>42</v>
       </c>
@@ -11463,8 +13537,15 @@
       <c r="K22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>44</v>
       </c>
@@ -11499,8 +13580,15 @@
       <c r="K23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>46</v>
       </c>
@@ -11535,8 +13623,15 @@
       <c r="K24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>48</v>
       </c>
@@ -11571,8 +13666,15 @@
       <c r="K25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>50</v>
       </c>
@@ -11607,8 +13709,15 @@
       <c r="K26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>52</v>
       </c>
@@ -11643,8 +13752,15 @@
       <c r="K27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>54</v>
       </c>
@@ -11679,8 +13795,15 @@
       <c r="K28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>56</v>
       </c>
@@ -11715,8 +13838,15 @@
       <c r="K29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>58</v>
       </c>
@@ -11751,8 +13881,15 @@
       <c r="K30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>60</v>
       </c>
@@ -11787,8 +13924,15 @@
       <c r="K31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>62</v>
       </c>
@@ -11823,8 +13967,15 @@
       <c r="K32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>64</v>
       </c>
@@ -11859,8 +14010,15 @@
       <c r="K33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>66</v>
       </c>
@@ -11895,8 +14053,15 @@
       <c r="K34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>68</v>
       </c>
@@ -11931,8 +14096,15 @@
       <c r="K35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>70</v>
       </c>
@@ -11967,8 +14139,15 @@
       <c r="K36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>72</v>
       </c>
@@ -12003,8 +14182,15 @@
       <c r="K37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>74</v>
       </c>
@@ -12039,8 +14225,15 @@
       <c r="K38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>76</v>
       </c>
@@ -12075,8 +14268,15 @@
       <c r="K39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>78</v>
       </c>
@@ -12111,8 +14311,15 @@
       <c r="K40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>80</v>
       </c>
@@ -12147,8 +14354,15 @@
       <c r="K41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>82</v>
       </c>
@@ -12183,8 +14397,15 @@
       <c r="K42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L42">
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>84</v>
       </c>
@@ -12219,8 +14440,15 @@
       <c r="K43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L43">
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>86</v>
       </c>
@@ -12255,8 +14483,15 @@
       <c r="K44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>88</v>
       </c>
@@ -12291,8 +14526,15 @@
       <c r="K45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L45">
+        <v>3</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>90</v>
       </c>
@@ -12327,8 +14569,15 @@
       <c r="K46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>92</v>
       </c>
@@ -12363,8 +14612,15 @@
       <c r="K47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L47">
+        <v>3</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>94</v>
       </c>
@@ -12399,8 +14655,15 @@
       <c r="K48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>96</v>
       </c>
@@ -12435,8 +14698,15 @@
       <c r="K49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L49">
+        <v>3</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>98</v>
       </c>
@@ -12471,8 +14741,15 @@
       <c r="K50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>100</v>
       </c>
@@ -12505,6 +14782,13 @@
         <v>3</v>
       </c>
       <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>3</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
